--- a/document/成本估算-告警語音版.xlsx
+++ b/document/成本估算-告警語音版.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.PythonProject\TemperatureRecorder\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FB512-A1C5-43A0-B275-9E5FEAADCD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC7C7A6-0CB4-4ABB-9920-4604FD75AC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4470" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="溫控成本" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>品項</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>網址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,47 +55,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro SD 16G</t>
-  </si>
-  <si>
-    <t>Raspberry Pi4B 樹莓派四代 3.5吋 HDMI 高清觸控顯示螢幕 按鍵可調背光</t>
-  </si>
-  <si>
-    <t>https://www.taiwaniot.com.tw/product/%e6%a8%b9%e8%8e%93%e6%b4%bepi-%e5%9b%9b%e4%bb%a3-3-5%e5%90%8b-hdmi-%e9%ab%98%e6%b8%85%e8%a7%b8%e6%8e%a7%e9%a1%af%e7%a4%ba%e8%9e%a2%e5%b9%95-%e6%8c%89%e9%8d%b5%e5%8f%af%e8%aa%bf%e8%83%8c%e5%85%89/</t>
+    <t>總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS18B20 溫度終端適配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiwaniot.com.tw/product/terminal-sensor-adapter-v2-0-%e7%b5%82%e7%ab%af%e9%81%a9%e9%85%8d%e5%99%a8-%e6%84%9f%e6%b8%ac%e5%99%a8-dfrobot/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樹莓派Pi 4B 3.5吋LCD液晶螢幕整合外殼</t>
-  </si>
-  <si>
-    <t>DS18B20 溫度終端適配器</t>
-  </si>
-  <si>
-    <t>防水型 DS18b20溫度感測器(100cm長度)</t>
-  </si>
-  <si>
-    <t>https://www.taiwaniot.com.tw/product/terminal-sensor-adapter-v2-0-%e7%b5%82%e7%ab%af%e9%81%a9%e9%85%8d%e5%99%a8-%e6%84%9f%e6%b8%ac%e5%99%a8-dfrobot/</t>
-  </si>
-  <si>
-    <t>電源線(TypeC)</t>
-  </si>
-  <si>
-    <t>總計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://24h.pchome.com.tw/prod/DGAG0H-A900A09NV?fq=/S/DGCA18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周邊線材、接頭、按鈕、分線台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2螺絲(5mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2單通六角銅柱(5mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2雙通六角銅柱(10mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3單通六角銅柱(30mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線頭、快接頭、杜邦頭、線材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/%E9%81%A9%E7%94%A8%E6%96%BC%E6%A8%B9%E8%8E%93%E6%B4%BE4%E4%BB%A3-4B%E9%9B%BB%E6%BA%90-Type-C-USB-5V3A-%E9%9B%BB%E6%BA%90%E9%81%A9%E9%85%8D%E5%99%A8-%E8%BC%B8%E5%85%A5%E9%9B%BB%E5%A3%93-AC-100-240V-i.41998737.7438124008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/SanDisk-Ultra-microSD-UHS-I-16GB-32GB-%E8%A8%98%E6%86%B6%E5%8D%A1-80MB-s-%E7%8F%BE%E8%B2%A8-i.1628978.14886967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*蝦皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/MICRO%E8%BD%89HDMI%E7%B7%9A1.5%E7%B1%B3-HDMI%E8%BD%89%E6%8F%9B%E7%B7%9A-%E6%89%8B%E6%A9%9F%E9%AB%98%E6%B8%85%E7%B7%9A-microhdmi%E7%B7%9A-i.133581942.2721620774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICRO轉HDMI線1.5米 HDMI轉換線 手機高清線 microhdmi線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/DS1820%E4%B8%8D%E9%8A%B9%E9%8B%BC%E5%B0%81%E8%A3%9D%E9%98%B2%E6%B0%B4DS18b20%E6%BA%AB%E5%BA%A6%E6%8E%A2%E9%A0%AD%E6%BA%AB%E5%BA%A6%E5%82%B3%E6%84%9F%E5%99%A8%EF%BC%8C%E7%94%A8%E6%96%BCArduino-i.239282952.6832569741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS1820不銹鋼封裝防水DS18b20溫度探頭溫度傳感器，用於Arduino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/%E7%94%A8%E6%96%BCRaspberry-PI2%E7%9A%841to3Port-40%E5%BC%95%E8%85%B3%E6%9D%BF%E6%A8%A1%E5%A1%8AGPIO%E9%81%A9%E9%85%8D%E5%99%A8-i.293691654.5447034734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/%E6%A8%B9%E8%8E%93%E6%B4%BE3.5%E5%AF%B8%E9%AB%98%E6%B8%85-HDMI%E9%A1%AF%E7%A4%BA%E5%99%A8-Raspberry-Pi-LCD%E8%A7%B8%E6%91%B8%E5%B1%8F-MPI3508-i.177590339.7603228243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹莓派3.5寸高清 HDMI顯示器 Raspberry Pi LCD觸摸屏 MPI3508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用於樹莓派4代/4B電源 Type-C USB 5V3A 電源適配器 輸入電壓 AC 100-240V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SanDisk Ultra microSD UHS-I 16GB 32GB 記憶卡 80MB/s 現貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用於Raspberry PI2的1to3Port 40引腳板模塊GPIO適配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ruten.com.tw/item/show.php?22025703647840</t>
+  </si>
+  <si>
+    <t>*露天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40P彩排杜邦線10-21-30-40CM 母對母 公對母 公對公 12股銅絲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ruten.com.tw/item/show.php?22034141532265</t>
+  </si>
+  <si>
+    <t>杜邦膠殼外殼雙排2.54mm杜邦線插頭2*2/3/4/5/6/7/8/9/10/11-20p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,16 +211,8 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,19 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -232,12 +283,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -519,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,112 +580,128 @@
     <col min="5" max="5" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1470</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>1470</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1429</v>
-      </c>
-      <c r="D2" s="5">
-        <f>C2*B2</f>
-        <v>1429</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>333</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D10" si="0">C3*B3</f>
-        <v>333</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3" si="0">C3*B3</f>
+        <v>79</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>169</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D8" si="1">C4*B4</f>
+        <v>82</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>762</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>762</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6" si="2">C6*B6</f>
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>171</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -647,83 +709,264 @@
       <c r="C7" s="1">
         <v>95</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D12" si="3">C9*B9</f>
+        <v>77</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <f>35/40</f>
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10*B10</f>
+        <v>22.75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <f>135/50</f>
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11*B11</f>
+        <v>5.4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f>19/50</f>
+        <v>0.38</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>64/50</f>
+        <v>1.28</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D15" si="4">C13*B13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>89/50</f>
+        <v>1.78</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16" si="5">C16*B16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7">
+        <f>SUM(D2:D16)</f>
+        <v>2599.15</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>333</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21*B21</f>
+        <v>333</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10">
-        <f>SUM(D2:D10)</f>
-        <v>3116</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>180</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22*B22</f>
+        <v>180</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E5DAC19C-C866-41AC-9CBB-9F50E0E71AE7}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{83940E7B-8871-4F77-9310-6AB9F11398A4}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{D087A745-41FE-469C-AE4E-4F9D40E3E8F4}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{0370AE34-434B-41B6-9D38-27C1002C5985}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{D087A745-41FE-469C-AE4E-4F9D40E3E8F4}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{6F1D9993-11EF-466C-BEC9-C41D7F102AE7}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{47380502-E1A8-4F0E-A237-D9F741796484}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B3ED490B-489A-4F50-BC30-013B91732DBF}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{CEBF1E9E-F8CB-4450-853F-4B74D6B57759}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{6182A6F4-DA27-4C58-96D7-5F7488606B6E}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{AF0AD2D6-32D1-4805-A0D1-6AE5F9DC3EAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/document/成本估算-告警語音版.xlsx
+++ b/document/成本估算-告警語音版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.PythonProject\TemperatureRecorder\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC7C7A6-0CB4-4ABB-9920-4604FD75AC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE578A88-7968-4108-920B-7FB879738880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4470" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>品項</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>樹莓派4代 Pi4B專用 鋁合金外殼 可壁掛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,50 +63,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS18B20 溫度終端適配器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.taiwaniot.com.tw/product/terminal-sensor-adapter-v2-0-%e7%b5%82%e7%ab%af%e9%81%a9%e9%85%8d%e5%99%a8-%e6%84%9f%e6%b8%ac%e5%99%a8-dfrobot/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>樹莓派Pi 4B 3.5吋LCD液晶螢幕整合外殼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M2螺絲(5mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2單通六角銅柱(5mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2雙通六角銅柱(10mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3單通六角銅柱(30mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>線頭、快接頭、杜邦頭、線材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://shopee.tw/%E9%81%A9%E7%94%A8%E6%96%BC%E6%A8%B9%E8%8E%93%E6%B4%BE4%E4%BB%A3-4B%E9%9B%BB%E6%BA%90-Type-C-USB-5V3A-%E9%9B%BB%E6%BA%90%E9%81%A9%E9%85%8D%E5%99%A8-%E8%BC%B8%E5%85%A5%E9%9B%BB%E5%A3%93-AC-100-240V-i.41998737.7438124008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shopee.tw/SanDisk-Ultra-microSD-UHS-I-16GB-32GB-%E8%A8%98%E6%86%B6%E5%8D%A1-80MB-s-%E7%8F%BE%E8%B2%A8-i.1628978.14886967</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://shopee.tw/MICRO%E8%BD%89HDMI%E7%B7%9A1.5%E7%B1%B3-HDMI%E8%BD%89%E6%8F%9B%E7%B7%9A-%E6%89%8B%E6%A9%9F%E9%AB%98%E6%B8%85%E7%B7%9A-microhdmi%E7%B7%9A-i.133581942.2721620774</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICRO轉HDMI線1.5米 HDMI轉換線 手機高清線 microhdmi線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shopee.tw/DS1820%E4%B8%8D%E9%8A%B9%E9%8B%BC%E5%B0%81%E8%A3%9D%E9%98%B2%E6%B0%B4DS18b20%E6%BA%AB%E5%BA%A6%E6%8E%A2%E9%A0%AD%E6%BA%AB%E5%BA%A6%E5%82%B3%E6%84%9F%E5%99%A8%EF%BC%8C%E7%94%A8%E6%96%BCArduino-i.239282952.6832569741</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://shopee.tw/%E7%94%A8%E6%96%BCRaspberry-PI2%E7%9A%841to3Port-40%E5%BC%95%E8%85%B3%E6%9D%BF%E6%A8%A1%E5%A1%8AGPIO%E9%81%A9%E9%85%8D%E5%99%A8-i.293691654.5447034734</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shopee.tw/%E6%A8%B9%E8%8E%93%E6%B4%BE3.5%E5%AF%B8%E9%AB%98%E6%B8%85-HDMI%E9%A1%AF%E7%A4%BA%E5%99%A8-Raspberry-Pi-LCD%E8%A7%B8%E6%91%B8%E5%B1%8F-MPI3508-i.177590339.7603228243</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,26 +103,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用於Raspberry PI2的1to3Port 40引腳板模塊GPIO適配器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ruten.com.tw/item/show.php?22025703647840</t>
-  </si>
-  <si>
-    <t>*露天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40P彩排杜邦線10-21-30-40CM 母對母 公對母 公對公 12股銅絲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ruten.com.tw/item/show.php?22034141532265</t>
-  </si>
-  <si>
-    <t>杜邦膠殼外殼雙排2.54mm杜邦線插頭2*2/3/4/5/6/7/8/9/10/11-20p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>要重找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣物聯網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來源商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這間是for pi3B的，要重找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線材、10K電阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GGD10-15-A3P 加蓋雙面端子台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICSHOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icshop.com.tw/product-page.php?10731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鍵模組 (六色隨機出貨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icshop.com.tw/product-page.php?26220</t>
+  </si>
+  <si>
+    <t>UNO Rev3 副廠開發板 通過美國FCC認證 相容Arduino 環保材質 附USB傳輸線變更項目
+加購: Arduino UNO ABS 工控專用機殼可壁掛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiwaniot.com.tw/product/uno-r3-%e5%8e%9f%e5%bb%a0%e6%99%b6%e7%89%87-mega328-atmega16u2-%e9%9d%9e%e4%bd%8e%e5%83%b9%e5%8a%a3%e8%b3%aapcb-%e5%8d%b0%e5%88%b7/</t>
   </si>
 </sst>
 </file>
@@ -232,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -255,22 +232,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -283,7 +278,21 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,26 +587,34 @@
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="94.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,10 +631,14 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -629,16 +650,14 @@
         <f t="shared" ref="D3" si="0">C3*B3</f>
         <v>79</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -647,19 +666,20 @@
         <v>82</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D8" si="1">C4*B4</f>
+        <f t="shared" ref="D4:D10" si="1">C4*B4</f>
         <v>82</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -671,55 +691,61 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6" si="2">C6*B6</f>
-        <v>69</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <f>C6*B6</f>
+        <v>171</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>95</v>
+        <v>463</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D7" si="2">C7*B7</f>
+        <v>463</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -731,242 +757,100 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D12" si="3">C9*B9</f>
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <f>35/40</f>
-        <v>0.875</v>
-      </c>
-      <c r="D10" s="1">
-        <f>C10*B10</f>
-        <v>22.75</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <f>135/50</f>
-        <v>2.7</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*B11</f>
-        <v>5.4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f>19/50</f>
-        <v>0.38</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <f>64/50</f>
-        <v>1.28</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:D15" si="4">C13*B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+        <f t="shared" ref="D11" si="3">C11*B11</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>89/50</f>
-        <v>1.78</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" ref="D16" si="5">C16*B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7">
-        <f>SUM(D2:D16)</f>
-        <v>2599.15</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>333</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21*B21</f>
-        <v>333</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>180</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22*B22</f>
-        <v>180</v>
-      </c>
-      <c r="E22" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D2:D11)</f>
+        <v>3060</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E5DAC19C-C866-41AC-9CBB-9F50E0E71AE7}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{D087A745-41FE-469C-AE4E-4F9D40E3E8F4}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{6F1D9993-11EF-466C-BEC9-C41D7F102AE7}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{47380502-E1A8-4F0E-A237-D9F741796484}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{B3ED490B-489A-4F50-BC30-013B91732DBF}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{CEBF1E9E-F8CB-4450-853F-4B74D6B57759}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{6182A6F4-DA27-4C58-96D7-5F7488606B6E}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{AF0AD2D6-32D1-4805-A0D1-6AE5F9DC3EAB}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{47380502-E1A8-4F0E-A237-D9F741796484}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{CEBF1E9E-F8CB-4450-853F-4B74D6B57759}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{AF0AD2D6-32D1-4805-A0D1-6AE5F9DC3EAB}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{5D81896E-B1AC-436A-8712-8FF46B5FE0DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>